--- a/test.xlsx
+++ b/test.xlsx
@@ -85,7 +85,7 @@
         <v>33974.0</v>
       </c>
       <c r="B2" t="n">
-        <v>167.7408414249879</v>
+        <v>113.27142564273818</v>
       </c>
     </row>
     <row r="3">
@@ -93,7 +93,7 @@
         <v>33979.0</v>
       </c>
       <c r="B3" t="n">
-        <v>133.8492737351924</v>
+        <v>101.49009695807223</v>
       </c>
     </row>
     <row r="4">
@@ -101,7 +101,7 @@
         <v>33984.0</v>
       </c>
       <c r="B4" t="n">
-        <v>83.49571830156599</v>
+        <v>4.672302608562169</v>
       </c>
     </row>
     <row r="5">
@@ -109,7 +109,7 @@
         <v>33994.0</v>
       </c>
       <c r="B5" t="n">
-        <v>49.04770757008159</v>
+        <v>28.451964299027285</v>
       </c>
     </row>
     <row r="6">
@@ -125,7 +125,7 @@
         <v>34004.0</v>
       </c>
       <c r="B7" t="n">
-        <v>23.754297983736315</v>
+        <v>17.94123967444117</v>
       </c>
     </row>
     <row r="8">
@@ -133,7 +133,7 @@
         <v>34014.0</v>
       </c>
       <c r="B8" t="n">
-        <v>20.924223313713853</v>
+        <v>18.90782024574733</v>
       </c>
     </row>
     <row r="9">
@@ -141,7 +141,7 @@
         <v>34019.0</v>
       </c>
       <c r="B9" t="n">
-        <v>18.517237616706577</v>
+        <v>21.70308854689474</v>
       </c>
     </row>
     <row r="10">
@@ -149,7 +149,7 @@
         <v>34024.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.109527695590668</v>
+        <v>11.144045332941822</v>
       </c>
     </row>
     <row r="11">
@@ -157,7 +157,7 @@
         <v>34034.0</v>
       </c>
       <c r="B11" t="n">
-        <v>19.551252558041245</v>
+        <v>19.49114685889479</v>
       </c>
     </row>
     <row r="12">
@@ -165,7 +165,7 @@
         <v>34039.0</v>
       </c>
       <c r="B12" t="n">
-        <v>21.681959174596926</v>
+        <v>18.659141307866058</v>
       </c>
     </row>
     <row r="13">
@@ -173,7 +173,7 @@
         <v>34044.0</v>
       </c>
       <c r="B13" t="n">
-        <v>15.330578873579352</v>
+        <v>19.099293658930186</v>
       </c>
     </row>
     <row r="14">
@@ -181,7 +181,7 @@
         <v>34054.0</v>
       </c>
       <c r="B14" t="n">
-        <v>3.7499999999999982</v>
+        <v>68.33009017360757</v>
       </c>
     </row>
     <row r="15">
@@ -189,7 +189,7 @@
         <v>34059.0</v>
       </c>
       <c r="B15" t="n">
-        <v>11.391457648035713</v>
+        <v>25.350466098156215</v>
       </c>
     </row>
     <row r="16">
@@ -197,7 +197,7 @@
         <v>34064.0</v>
       </c>
       <c r="B16" t="n">
-        <v>4.983471250306182</v>
+        <v>68.04929750058717</v>
       </c>
     </row>
     <row r="17">
@@ -205,7 +205,7 @@
         <v>34075.0</v>
       </c>
       <c r="B17" t="n">
-        <v>32.62770528357298</v>
+        <v>27.247596052610874</v>
       </c>
     </row>
     <row r="18">
@@ -213,7 +213,7 @@
         <v>34080.0</v>
       </c>
       <c r="B18" t="n">
-        <v>33.35454374349797</v>
+        <v>9.761328037279045</v>
       </c>
     </row>
     <row r="19">
@@ -221,7 +221,7 @@
         <v>34085.0</v>
       </c>
       <c r="B19" t="n">
-        <v>17.872057020150585</v>
+        <v>20.738402144783826</v>
       </c>
     </row>
     <row r="20">
@@ -229,7 +229,7 @@
         <v>34095.0</v>
       </c>
       <c r="B20" t="n">
-        <v>3.7499999999999982</v>
+        <v>22.34613313128113</v>
       </c>
     </row>
     <row r="21">
@@ -237,7 +237,7 @@
         <v>34100.0</v>
       </c>
       <c r="B21" t="n">
-        <v>36.8423363444834</v>
+        <v>13.744354225399002</v>
       </c>
     </row>
     <row r="22">
@@ -245,7 +245,7 @@
         <v>34110.0</v>
       </c>
       <c r="B22" t="n">
-        <v>26.24717136216706</v>
+        <v>12.720756707019058</v>
       </c>
     </row>
     <row r="23">
@@ -253,7 +253,7 @@
         <v>34120.0</v>
       </c>
       <c r="B23" t="n">
-        <v>19.076168870492438</v>
+        <v>18.407584775496165</v>
       </c>
     </row>
     <row r="24">
@@ -261,7 +261,7 @@
         <v>34128.0</v>
       </c>
       <c r="B24" t="n">
-        <v>20.589407098814057</v>
+        <v>18.177280045737668</v>
       </c>
     </row>
     <row r="25">
@@ -269,7 +269,7 @@
         <v>34133.0</v>
       </c>
       <c r="B25" t="n">
-        <v>15.483348444071833</v>
+        <v>12.252514151247402</v>
       </c>
     </row>
     <row r="26">
@@ -277,7 +277,7 @@
         <v>34143.0</v>
       </c>
       <c r="B26" t="n">
-        <v>13.425216435957198</v>
+        <v>11.614020623158444</v>
       </c>
     </row>
     <row r="27">
@@ -285,7 +285,7 @@
         <v>34148.0</v>
       </c>
       <c r="B27" t="n">
-        <v>12.75563253321766</v>
+        <v>13.604577631557198</v>
       </c>
     </row>
     <row r="28">
@@ -293,7 +293,7 @@
         <v>34153.0</v>
       </c>
       <c r="B28" t="n">
-        <v>5.578614923758385</v>
+        <v>26.85488113545877</v>
       </c>
     </row>
     <row r="29">
@@ -301,7 +301,7 @@
         <v>34163.0</v>
       </c>
       <c r="B29" t="n">
-        <v>29.97715414498582</v>
+        <v>32.151763636596435</v>
       </c>
     </row>
     <row r="30">
@@ -317,7 +317,7 @@
         <v>34175.0</v>
       </c>
       <c r="B31" t="n">
-        <v>58.75039939796644</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="32">
@@ -325,7 +325,7 @@
         <v>34185.0</v>
       </c>
       <c r="B32" t="n">
-        <v>22.70779700896219</v>
+        <v>8.495894727127304</v>
       </c>
     </row>
     <row r="33">
@@ -333,7 +333,7 @@
         <v>34195.0</v>
       </c>
       <c r="B33" t="n">
-        <v>15.16732851123507</v>
+        <v>13.220964641521858</v>
       </c>
     </row>
     <row r="34">
@@ -341,7 +341,7 @@
         <v>34200.0</v>
       </c>
       <c r="B34" t="n">
-        <v>12.998763626921765</v>
+        <v>12.198862096896505</v>
       </c>
     </row>
     <row r="35">
@@ -349,7 +349,7 @@
         <v>34210.0</v>
       </c>
       <c r="B35" t="n">
-        <v>6.16278242344619</v>
+        <v>25.746861345513214</v>
       </c>
     </row>
     <row r="36">
@@ -357,7 +357,7 @@
         <v>34215.0</v>
       </c>
       <c r="B36" t="n">
-        <v>13.238694511215972</v>
+        <v>120.94118885334649</v>
       </c>
     </row>
     <row r="37">
@@ -365,7 +365,7 @@
         <v>34220.0</v>
       </c>
       <c r="B37" t="n">
-        <v>30.793903055046812</v>
+        <v>22.75496893900736</v>
       </c>
     </row>
     <row r="38">
@@ -381,7 +381,7 @@
         <v>34238.0</v>
       </c>
       <c r="B39" t="n">
-        <v>79.64560441908183</v>
+        <v>42.40101621751139</v>
       </c>
     </row>
     <row r="40">
@@ -389,7 +389,7 @@
         <v>34243.0</v>
       </c>
       <c r="B40" t="n">
-        <v>65.79234037449432</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="41">
@@ -397,7 +397,7 @@
         <v>34254.0</v>
       </c>
       <c r="B41" t="n">
-        <v>26.449275584171872</v>
+        <v>17.8170888820913</v>
       </c>
     </row>
     <row r="42">
@@ -405,7 +405,7 @@
         <v>34259.0</v>
       </c>
       <c r="B42" t="n">
-        <v>21.875634664433388</v>
+        <v>17.46649789122577</v>
       </c>
     </row>
     <row r="43">
@@ -413,7 +413,7 @@
         <v>34264.0</v>
       </c>
       <c r="B43" t="n">
-        <v>17.109119436439414</v>
+        <v>22.13517815292175</v>
       </c>
     </row>
     <row r="44">
@@ -421,7 +421,7 @@
         <v>34274.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3.7499999999999982</v>
+        <v>71.13385312375648</v>
       </c>
     </row>
     <row r="45">
@@ -437,7 +437,7 @@
         <v>34284.0</v>
       </c>
       <c r="B46" t="n">
-        <v>17.414873334954905</v>
+        <v>35.85875208400529</v>
       </c>
     </row>
     <row r="47">
@@ -445,7 +445,7 @@
         <v>34294.0</v>
       </c>
       <c r="B47" t="n">
-        <v>5.31213474606107</v>
+        <v>72.43694690559808</v>
       </c>
     </row>
     <row r="48">
@@ -453,7 +453,7 @@
         <v>34299.0</v>
       </c>
       <c r="B48" t="n">
-        <v>51.885919929830294</v>
+        <v>178.2986126723443</v>
       </c>
     </row>
     <row r="49">
@@ -461,7 +461,7 @@
         <v>34304.0</v>
       </c>
       <c r="B49" t="n">
-        <v>36.28743114374021</v>
+        <v>173.7107143323797</v>
       </c>
     </row>
     <row r="50">
@@ -469,7 +469,7 @@
         <v>34314.0</v>
       </c>
       <c r="B50" t="n">
-        <v>151.46564208981377</v>
+        <v>83.83249821576135</v>
       </c>
     </row>
     <row r="51">
@@ -477,7 +477,7 @@
         <v>34319.0</v>
       </c>
       <c r="B51" t="n">
-        <v>102.75823508836378</v>
+        <v>128.48703873149412</v>
       </c>
     </row>
     <row r="52">
@@ -485,7 +485,7 @@
         <v>34325.0</v>
       </c>
       <c r="B52" t="n">
-        <v>90.90338843696739</v>
+        <v>117.51564738960019</v>
       </c>
     </row>
     <row r="53">
@@ -493,7 +493,7 @@
         <v>34335.0</v>
       </c>
       <c r="B53" t="n">
-        <v>127.09305351094328</v>
+        <v>158.5128130916028</v>
       </c>
     </row>
     <row r="54">
@@ -501,7 +501,7 @@
         <v>34340.0</v>
       </c>
       <c r="B54" t="n">
-        <v>168.22723476574575</v>
+        <v>100.43838125060218</v>
       </c>
     </row>
     <row r="55">
@@ -509,7 +509,7 @@
         <v>34345.0</v>
       </c>
       <c r="B55" t="n">
-        <v>15.602470553136152</v>
+        <v>114.47441368609549</v>
       </c>
     </row>
     <row r="56">
@@ -517,7 +517,7 @@
         <v>34355.0</v>
       </c>
       <c r="B56" t="n">
-        <v>177.44957369046662</v>
+        <v>108.21744322048639</v>
       </c>
     </row>
     <row r="57">
@@ -525,7 +525,7 @@
         <v>34360.0</v>
       </c>
       <c r="B57" t="n">
-        <v>105.60255620764728</v>
+        <v>28.41630430623258</v>
       </c>
     </row>
     <row r="58">
@@ -533,7 +533,7 @@
         <v>34365.0</v>
       </c>
       <c r="B58" t="n">
-        <v>43.08868398536001</v>
+        <v>19.526375557057072</v>
       </c>
     </row>
     <row r="59">
@@ -541,7 +541,7 @@
         <v>34375.0</v>
       </c>
       <c r="B59" t="n">
-        <v>30.633768014191237</v>
+        <v>26.495621046780162</v>
       </c>
     </row>
     <row r="60">
@@ -549,7 +549,7 @@
         <v>34380.0</v>
       </c>
       <c r="B60" t="n">
-        <v>322.3156116410706</v>
+        <v>319.3186973145094</v>
       </c>
     </row>
     <row r="61">
@@ -557,7 +557,7 @@
         <v>34385.0</v>
       </c>
       <c r="B61" t="n">
-        <v>114.83553041360689</v>
+        <v>34.629895829186246</v>
       </c>
     </row>
     <row r="62">
@@ -565,7 +565,7 @@
         <v>34396.0</v>
       </c>
       <c r="B62" t="n">
-        <v>85.59734862206822</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="63">
@@ -573,7 +573,7 @@
         <v>34401.0</v>
       </c>
       <c r="B63" t="n">
-        <v>76.23932907679531</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="64">
@@ -581,7 +581,7 @@
         <v>34406.0</v>
       </c>
       <c r="B64" t="n">
-        <v>119.34815176436955</v>
+        <v>136.23181865012793</v>
       </c>
     </row>
     <row r="65">
@@ -589,7 +589,7 @@
         <v>34416.0</v>
       </c>
       <c r="B65" t="n">
-        <v>6.688411634504992</v>
+        <v>30.031330001896098</v>
       </c>
     </row>
     <row r="66">
@@ -597,7 +597,7 @@
         <v>34422.0</v>
       </c>
       <c r="B66" t="n">
-        <v>68.7464906551159</v>
+        <v>56.007556039050414</v>
       </c>
     </row>
     <row r="67">
@@ -605,7 +605,7 @@
         <v>34427.0</v>
       </c>
       <c r="B67" t="n">
-        <v>39.01044561792409</v>
+        <v>31.267304840029244</v>
       </c>
     </row>
     <row r="68">
@@ -613,7 +613,7 @@
         <v>34437.0</v>
       </c>
       <c r="B68" t="n">
-        <v>20.190707098504642</v>
+        <v>31.84910498964167</v>
       </c>
     </row>
     <row r="69">
@@ -621,7 +621,7 @@
         <v>34442.0</v>
       </c>
       <c r="B69" t="n">
-        <v>38.74003050681332</v>
+        <v>19.589741121799086</v>
       </c>
     </row>
     <row r="70">
@@ -637,7 +637,7 @@
         <v>34457.0</v>
       </c>
       <c r="B71" t="n">
-        <v>20.09713318680543</v>
+        <v>20.948089084314116</v>
       </c>
     </row>
     <row r="72">
@@ -645,7 +645,7 @@
         <v>34462.0</v>
       </c>
       <c r="B72" t="n">
-        <v>19.235612883655488</v>
+        <v>15.960093015214849</v>
       </c>
     </row>
     <row r="73">
@@ -653,7 +653,7 @@
         <v>34467.0</v>
       </c>
       <c r="B73" t="n">
-        <v>19.99125983674955</v>
+        <v>9.640969422226041</v>
       </c>
     </row>
     <row r="74">
@@ -661,7 +661,7 @@
         <v>34477.0</v>
       </c>
       <c r="B74" t="n">
-        <v>15.58568717905203</v>
+        <v>16.328342154642574</v>
       </c>
     </row>
     <row r="75">
@@ -669,7 +669,7 @@
         <v>34482.0</v>
       </c>
       <c r="B75" t="n">
-        <v>15.850712549091359</v>
+        <v>13.48603356513306</v>
       </c>
     </row>
     <row r="76">
@@ -677,7 +677,7 @@
         <v>34487.0</v>
       </c>
       <c r="B76" t="n">
-        <v>12.749042986217644</v>
+        <v>14.745575763570141</v>
       </c>
     </row>
     <row r="77">
@@ -685,7 +685,7 @@
         <v>34497.0</v>
       </c>
       <c r="B77" t="n">
-        <v>11.22655338394356</v>
+        <v>12.871498633171806</v>
       </c>
     </row>
     <row r="78">
@@ -693,7 +693,7 @@
         <v>34502.0</v>
       </c>
       <c r="B78" t="n">
-        <v>14.15119841917134</v>
+        <v>11.746272405062777</v>
       </c>
     </row>
     <row r="79">
@@ -701,7 +701,7 @@
         <v>34507.0</v>
       </c>
       <c r="B79" t="n">
-        <v>11.655128039460138</v>
+        <v>10.824340382963221</v>
       </c>
     </row>
     <row r="80">
@@ -709,7 +709,7 @@
         <v>34517.0</v>
       </c>
       <c r="B80" t="n">
-        <v>11.40640773251981</v>
+        <v>9.895622723886072</v>
       </c>
     </row>
     <row r="81">
@@ -717,7 +717,7 @@
         <v>34522.0</v>
       </c>
       <c r="B81" t="n">
-        <v>10.607822879571813</v>
+        <v>9.422561206733866</v>
       </c>
     </row>
     <row r="82">
@@ -725,7 +725,7 @@
         <v>34527.0</v>
       </c>
       <c r="B82" t="n">
-        <v>8.51857701537731</v>
+        <v>10.721275095429196</v>
       </c>
     </row>
     <row r="83">
@@ -733,7 +733,7 @@
         <v>34537.0</v>
       </c>
       <c r="B83" t="n">
-        <v>10.50405157100491</v>
+        <v>14.176625496474932</v>
       </c>
     </row>
     <row r="84">
@@ -741,7 +741,7 @@
         <v>34542.0</v>
       </c>
       <c r="B84" t="n">
-        <v>11.051586992801777</v>
+        <v>11.057469117554511</v>
       </c>
     </row>
     <row r="85">
@@ -749,7 +749,7 @@
         <v>34547.0</v>
       </c>
       <c r="B85" t="n">
-        <v>10.51653285969087</v>
+        <v>11.60878339524975</v>
       </c>
     </row>
     <row r="86">
@@ -757,7 +757,7 @@
         <v>34557.0</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9609371490027565</v>
+        <v>25.8527553015522</v>
       </c>
     </row>
     <row r="87">
@@ -765,7 +765,7 @@
         <v>34562.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7.70747109676425</v>
+        <v>13.895628518437876</v>
       </c>
     </row>
     <row r="88">
@@ -773,7 +773,7 @@
         <v>34567.0</v>
       </c>
       <c r="B88" t="n">
-        <v>22.417572729079765</v>
+        <v>10.072994145990936</v>
       </c>
     </row>
     <row r="89">
@@ -789,7 +789,7 @@
         <v>34582.0</v>
       </c>
       <c r="B90" t="n">
-        <v>51.03417921453945</v>
+        <v>18.41512821546262</v>
       </c>
     </row>
     <row r="91">
@@ -797,7 +797,7 @@
         <v>34587.0</v>
       </c>
       <c r="B91" t="n">
-        <v>21.92338799512737</v>
+        <v>16.915478509617635</v>
       </c>
     </row>
     <row r="92">
@@ -805,7 +805,7 @@
         <v>34597.0</v>
       </c>
       <c r="B92" t="n">
-        <v>42.806253801897554</v>
+        <v>38.409244293499924</v>
       </c>
     </row>
     <row r="93">
@@ -813,7 +813,7 @@
         <v>34602.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7.0011087076823495</v>
+        <v>4.539378497895933</v>
       </c>
     </row>
     <row r="94">
@@ -821,7 +821,7 @@
         <v>34607.0</v>
       </c>
       <c r="B94" t="n">
-        <v>14.831345950978674</v>
+        <v>13.26245375607972</v>
       </c>
     </row>
     <row r="95">
@@ -829,7 +829,7 @@
         <v>34617.0</v>
       </c>
       <c r="B95" t="n">
-        <v>3.7499999999999982</v>
+        <v>58.66665416600013</v>
       </c>
     </row>
     <row r="96">
@@ -837,7 +837,7 @@
         <v>34622.0</v>
       </c>
       <c r="B96" t="n">
-        <v>16.908052374293316</v>
+        <v>16.263517178895643</v>
       </c>
     </row>
     <row r="97">
@@ -845,7 +845,7 @@
         <v>34627.0</v>
       </c>
       <c r="B97" t="n">
-        <v>44.80483766717881</v>
+        <v>35.71249701380314</v>
       </c>
     </row>
     <row r="98">
@@ -853,7 +853,7 @@
         <v>34637.0</v>
       </c>
       <c r="B98" t="n">
-        <v>101.62724431727877</v>
+        <v>125.96875559092241</v>
       </c>
     </row>
     <row r="99">
@@ -861,7 +861,7 @@
         <v>34642.0</v>
       </c>
       <c r="B99" t="n">
-        <v>52.988812481248225</v>
+        <v>78.60902800659943</v>
       </c>
     </row>
     <row r="100">
@@ -869,7 +869,7 @@
         <v>34647.0</v>
       </c>
       <c r="B100" t="n">
-        <v>41.92636409406933</v>
+        <v>11.92105847466026</v>
       </c>
     </row>
     <row r="101">
@@ -877,7 +877,7 @@
         <v>34660.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3.7499999999999982</v>
+        <v>107.30262360212193</v>
       </c>
     </row>
     <row r="102">
@@ -885,7 +885,7 @@
         <v>34665.0</v>
       </c>
       <c r="B102" t="n">
-        <v>51.73332587642346</v>
+        <v>98.93642350199336</v>
       </c>
     </row>
     <row r="103">
@@ -893,7 +893,7 @@
         <v>34670.0</v>
       </c>
       <c r="B103" t="n">
-        <v>127.75662184296425</v>
+        <v>24.215172739543984</v>
       </c>
     </row>
     <row r="104">
@@ -901,7 +901,7 @@
         <v>34680.0</v>
       </c>
       <c r="B104" t="n">
-        <v>99.13123509147582</v>
+        <v>25.575637323457947</v>
       </c>
     </row>
     <row r="105">
@@ -909,7 +909,7 @@
         <v>34685.0</v>
       </c>
       <c r="B105" t="n">
-        <v>3.7499999999999982</v>
+        <v>166.87393576355018</v>
       </c>
     </row>
     <row r="106">
@@ -917,7 +917,7 @@
         <v>34690.0</v>
       </c>
       <c r="B106" t="n">
-        <v>30.423641778538396</v>
+        <v>69.27089966357045</v>
       </c>
     </row>
     <row r="107">
@@ -933,7 +933,7 @@
         <v>34707.0</v>
       </c>
       <c r="B108" t="n">
-        <v>48.8680209266814</v>
+        <v>112.29345169194843</v>
       </c>
     </row>
     <row r="109">
@@ -941,7 +941,7 @@
         <v>34712.0</v>
       </c>
       <c r="B109" t="n">
-        <v>147.2323222838195</v>
+        <v>226.99060594314494</v>
       </c>
     </row>
     <row r="110">
@@ -949,7 +949,7 @@
         <v>34722.0</v>
       </c>
       <c r="B110" t="n">
-        <v>233.97118951593117</v>
+        <v>209.70195316418295</v>
       </c>
     </row>
     <row r="111">
@@ -957,7 +957,7 @@
         <v>34727.0</v>
       </c>
       <c r="B111" t="n">
-        <v>37.58267922094683</v>
+        <v>171.5735035712984</v>
       </c>
     </row>
     <row r="112">
@@ -965,7 +965,7 @@
         <v>34735.0</v>
       </c>
       <c r="B112" t="n">
-        <v>199.29892060515726</v>
+        <v>213.35344407749344</v>
       </c>
     </row>
     <row r="113">
@@ -973,7 +973,7 @@
         <v>34745.0</v>
       </c>
       <c r="B113" t="n">
-        <v>144.0745159421543</v>
+        <v>158.41093536449273</v>
       </c>
     </row>
     <row r="114">
@@ -981,7 +981,7 @@
         <v>34750.0</v>
       </c>
       <c r="B114" t="n">
-        <v>62.954419037118775</v>
+        <v>70.482595197171</v>
       </c>
     </row>
     <row r="115">
@@ -989,7 +989,7 @@
         <v>34756.0</v>
       </c>
       <c r="B115" t="n">
-        <v>57.275295569939054</v>
+        <v>45.45383233730116</v>
       </c>
     </row>
     <row r="116">
@@ -997,7 +997,7 @@
         <v>34766.0</v>
       </c>
       <c r="B116" t="n">
-        <v>41.84808172859106</v>
+        <v>8.299945843604133</v>
       </c>
     </row>
     <row r="117">
@@ -1005,7 +1005,7 @@
         <v>34771.0</v>
       </c>
       <c r="B117" t="n">
-        <v>51.98911855375827</v>
+        <v>57.42330049064466</v>
       </c>
     </row>
     <row r="118">
@@ -1013,7 +1013,7 @@
         <v>34776.0</v>
       </c>
       <c r="B118" t="n">
-        <v>40.80738876464469</v>
+        <v>21.72938706409451</v>
       </c>
     </row>
     <row r="119">
@@ -1021,7 +1021,7 @@
         <v>34786.0</v>
       </c>
       <c r="B119" t="n">
-        <v>24.98474869984014</v>
+        <v>22.377936894763653</v>
       </c>
     </row>
     <row r="120">
@@ -1029,7 +1029,7 @@
         <v>34791.0</v>
       </c>
       <c r="B120" t="n">
-        <v>21.62843943511145</v>
+        <v>17.679459289348706</v>
       </c>
     </row>
     <row r="121">
@@ -1037,7 +1037,7 @@
         <v>34796.0</v>
       </c>
       <c r="B121" t="n">
-        <v>18.77443268507883</v>
+        <v>20.728761062067917</v>
       </c>
     </row>
     <row r="122">
@@ -1045,7 +1045,7 @@
         <v>34806.0</v>
       </c>
       <c r="B122" t="n">
-        <v>21.068311215364123</v>
+        <v>24.416472510853396</v>
       </c>
     </row>
     <row r="123">
@@ -1053,7 +1053,7 @@
         <v>34811.0</v>
       </c>
       <c r="B123" t="n">
-        <v>15.95705103356266</v>
+        <v>12.077736039007078</v>
       </c>
     </row>
     <row r="124">
@@ -1061,7 +1061,7 @@
         <v>34816.0</v>
       </c>
       <c r="B124" t="n">
-        <v>13.84025009980696</v>
+        <v>13.489737306478448</v>
       </c>
     </row>
     <row r="125">
@@ -1069,7 +1069,7 @@
         <v>34826.0</v>
       </c>
       <c r="B125" t="n">
-        <v>9.64974098399396</v>
+        <v>20.697466170053566</v>
       </c>
     </row>
     <row r="126">
@@ -1077,7 +1077,7 @@
         <v>34831.0</v>
       </c>
       <c r="B126" t="n">
-        <v>14.060499551775546</v>
+        <v>16.64692875848361</v>
       </c>
     </row>
     <row r="127">
@@ -1085,7 +1085,7 @@
         <v>34836.0</v>
       </c>
       <c r="B127" t="n">
-        <v>16.196412725444237</v>
+        <v>14.74513982564708</v>
       </c>
     </row>
     <row r="128">
@@ -1093,7 +1093,7 @@
         <v>34846.0</v>
       </c>
       <c r="B128" t="n">
-        <v>13.57632180068569</v>
+        <v>22.720463325991147</v>
       </c>
     </row>
     <row r="129">
@@ -1101,7 +1101,7 @@
         <v>34851.0</v>
       </c>
       <c r="B129" t="n">
-        <v>12.747795823193218</v>
+        <v>11.279561224644315</v>
       </c>
     </row>
     <row r="130">
@@ -1109,7 +1109,7 @@
         <v>34856.0</v>
       </c>
       <c r="B130" t="n">
-        <v>11.412459628579203</v>
+        <v>10.68173175569415</v>
       </c>
     </row>
     <row r="131">
@@ -1117,7 +1117,7 @@
         <v>34866.0</v>
       </c>
       <c r="B131" t="n">
-        <v>6.8204105434848294</v>
+        <v>20.55809470865548</v>
       </c>
     </row>
     <row r="132">
@@ -1125,7 +1125,7 @@
         <v>34871.0</v>
       </c>
       <c r="B132" t="n">
-        <v>10.090546114716354</v>
+        <v>9.34057284668012</v>
       </c>
     </row>
     <row r="133">
@@ -1133,7 +1133,7 @@
         <v>34876.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9.334858234441079</v>
+        <v>10.378192042521079</v>
       </c>
     </row>
     <row r="134">
@@ -1141,7 +1141,7 @@
         <v>34886.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10.822661595085114</v>
+        <v>11.28395380027086</v>
       </c>
     </row>
     <row r="135">
@@ -1149,7 +1149,7 @@
         <v>34891.0</v>
       </c>
       <c r="B135" t="n">
-        <v>10.702693123188142</v>
+        <v>9.582418127578974</v>
       </c>
     </row>
     <row r="136">
@@ -1157,7 +1157,7 @@
         <v>34896.0</v>
       </c>
       <c r="B136" t="n">
-        <v>8.968762318212685</v>
+        <v>8.365365814195451</v>
       </c>
     </row>
     <row r="137">
@@ -1165,7 +1165,7 @@
         <v>34906.0</v>
       </c>
       <c r="B137" t="n">
-        <v>8.84827448842096</v>
+        <v>8.031425523250695</v>
       </c>
     </row>
     <row r="138">
@@ -1173,7 +1173,7 @@
         <v>34911.0</v>
       </c>
       <c r="B138" t="n">
-        <v>8.567948898558555</v>
+        <v>8.256197218647348</v>
       </c>
     </row>
     <row r="139">
@@ -1181,7 +1181,7 @@
         <v>34916.0</v>
       </c>
       <c r="B139" t="n">
-        <v>8.08609697033452</v>
+        <v>7.76057409838638</v>
       </c>
     </row>
     <row r="140">
@@ -1189,7 +1189,7 @@
         <v>34926.0</v>
       </c>
       <c r="B140" t="n">
-        <v>8.14416915535677</v>
+        <v>8.230668771598372</v>
       </c>
     </row>
     <row r="141">
@@ -1197,7 +1197,7 @@
         <v>34931.0</v>
       </c>
       <c r="B141" t="n">
-        <v>8.540414173460182</v>
+        <v>8.47432066849164</v>
       </c>
     </row>
     <row r="142">
@@ -1205,7 +1205,7 @@
         <v>34936.0</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5856118404202202</v>
+        <v>10.965074662776487</v>
       </c>
     </row>
     <row r="143">
@@ -1213,7 +1213,7 @@
         <v>34946.0</v>
       </c>
       <c r="B143" t="n">
-        <v>12.20539959901901</v>
+        <v>9.384429922685824</v>
       </c>
     </row>
     <row r="144">
@@ -1221,7 +1221,7 @@
         <v>34951.0</v>
       </c>
       <c r="B144" t="n">
-        <v>10.423158747879246</v>
+        <v>8.834018107856803</v>
       </c>
     </row>
     <row r="145">
@@ -1229,7 +1229,7 @@
         <v>34956.0</v>
       </c>
       <c r="B145" t="n">
-        <v>14.730017276281316</v>
+        <v>7.948823857890679</v>
       </c>
     </row>
     <row r="146">
@@ -1237,7 +1237,7 @@
         <v>34966.0</v>
       </c>
       <c r="B146" t="n">
-        <v>6.863533951623521</v>
+        <v>21.516500203486633</v>
       </c>
     </row>
     <row r="147">
@@ -1245,7 +1245,7 @@
         <v>34971.0</v>
       </c>
       <c r="B147" t="n">
-        <v>22.660531986355068</v>
+        <v>5.01402474989093</v>
       </c>
     </row>
     <row r="148">
@@ -1253,7 +1253,7 @@
         <v>34976.0</v>
       </c>
       <c r="B148" t="n">
-        <v>8.11793587322894</v>
+        <v>9.590825664930355</v>
       </c>
     </row>
     <row r="149">
@@ -1261,7 +1261,7 @@
         <v>34986.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12.96084060850411</v>
+        <v>14.216354394537296</v>
       </c>
     </row>
     <row r="150">
@@ -1269,7 +1269,7 @@
         <v>34991.0</v>
       </c>
       <c r="B150" t="n">
-        <v>15.857939880341517</v>
+        <v>5.073655764958444</v>
       </c>
     </row>
     <row r="151">
@@ -1277,7 +1277,7 @@
         <v>34996.0</v>
       </c>
       <c r="B151" t="n">
-        <v>9.311491873126784</v>
+        <v>11.695118537548195</v>
       </c>
     </row>
     <row r="152">
@@ -1285,7 +1285,7 @@
         <v>35006.0</v>
       </c>
       <c r="B152" t="n">
-        <v>3.7499999999999982</v>
+        <v>44.79267881588766</v>
       </c>
     </row>
     <row r="153">
@@ -1293,7 +1293,7 @@
         <v>35011.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.2844037273409104</v>
+        <v>1.6334317501455753</v>
       </c>
     </row>
     <row r="154">
@@ -1301,7 +1301,7 @@
         <v>35016.0</v>
       </c>
       <c r="B154" t="n">
-        <v>21.18611179345354</v>
+        <v>4.357208072511471</v>
       </c>
     </row>
     <row r="155">
@@ -1309,7 +1309,7 @@
         <v>35026.0</v>
       </c>
       <c r="B155" t="n">
-        <v>11.601190129679914</v>
+        <v>19.337152979962692</v>
       </c>
     </row>
     <row r="156">
@@ -1317,7 +1317,7 @@
         <v>35031.0</v>
       </c>
       <c r="B156" t="n">
-        <v>30.460145527459105</v>
+        <v>30.599592981803543</v>
       </c>
     </row>
     <row r="157">
@@ -1325,7 +1325,7 @@
         <v>35036.0</v>
       </c>
       <c r="B157" t="n">
-        <v>15.294115097951165</v>
+        <v>28.292015912975593</v>
       </c>
     </row>
     <row r="158">
@@ -1333,7 +1333,7 @@
         <v>35046.0</v>
       </c>
       <c r="B158" t="n">
-        <v>27.170671219134682</v>
+        <v>19.500081757609326</v>
       </c>
     </row>
     <row r="159">
@@ -1341,7 +1341,7 @@
         <v>35051.0</v>
       </c>
       <c r="B159" t="n">
-        <v>25.641313605399937</v>
+        <v>8.397902209553669</v>
       </c>
     </row>
     <row r="160">
@@ -1349,7 +1349,7 @@
         <v>35056.0</v>
       </c>
       <c r="B160" t="n">
-        <v>8.58684337822485</v>
+        <v>41.71021631625319</v>
       </c>
     </row>
     <row r="161">
@@ -1357,7 +1357,7 @@
         <v>35066.0</v>
       </c>
       <c r="B161" t="n">
-        <v>45.69755238855763</v>
+        <v>15.700243046369716</v>
       </c>
     </row>
     <row r="162">
@@ -1365,7 +1365,7 @@
         <v>35071.0</v>
       </c>
       <c r="B162" t="n">
-        <v>61.839528629582695</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="163">
@@ -1373,7 +1373,7 @@
         <v>35076.0</v>
       </c>
       <c r="B163" t="n">
-        <v>20.982222432862596</v>
+        <v>17.680925862331115</v>
       </c>
     </row>
     <row r="164">
@@ -1381,7 +1381,7 @@
         <v>35086.0</v>
       </c>
       <c r="B164" t="n">
-        <v>16.09046290610387</v>
+        <v>21.57630540819899</v>
       </c>
     </row>
     <row r="165">
@@ -1389,7 +1389,7 @@
         <v>35091.0</v>
       </c>
       <c r="B165" t="n">
-        <v>20.12822128336452</v>
+        <v>19.16146219893087</v>
       </c>
     </row>
     <row r="166">
@@ -1397,7 +1397,7 @@
         <v>35096.0</v>
       </c>
       <c r="B166" t="n">
-        <v>170.87287533479443</v>
+        <v>19.0598939261811</v>
       </c>
     </row>
     <row r="167">
@@ -1405,7 +1405,7 @@
         <v>35106.0</v>
       </c>
       <c r="B167" t="n">
-        <v>60.86852299042116</v>
+        <v>19.214814647383914</v>
       </c>
     </row>
     <row r="168">
@@ -1413,7 +1413,7 @@
         <v>35111.0</v>
       </c>
       <c r="B168" t="n">
-        <v>60.20869690950339</v>
+        <v>38.47332650518866</v>
       </c>
     </row>
     <row r="169">
@@ -1421,7 +1421,7 @@
         <v>35116.0</v>
       </c>
       <c r="B169" t="n">
-        <v>39.36086163824723</v>
+        <v>17.83800634616147</v>
       </c>
     </row>
     <row r="170">
@@ -1429,7 +1429,7 @@
         <v>35126.0</v>
       </c>
       <c r="B170" t="n">
-        <v>23.612840832687645</v>
+        <v>24.409613494074154</v>
       </c>
     </row>
     <row r="171">
@@ -1437,7 +1437,7 @@
         <v>35131.0</v>
       </c>
       <c r="B171" t="n">
-        <v>21.509943206604344</v>
+        <v>33.44353661930828</v>
       </c>
     </row>
     <row r="172">
@@ -1445,7 +1445,7 @@
         <v>35136.0</v>
       </c>
       <c r="B172" t="n">
-        <v>34.783623448646935</v>
+        <v>12.348359824385708</v>
       </c>
     </row>
     <row r="173">
@@ -1453,7 +1453,7 @@
         <v>35146.0</v>
       </c>
       <c r="B173" t="n">
-        <v>22.903133350749275</v>
+        <v>12.727348360958915</v>
       </c>
     </row>
     <row r="174">
@@ -1461,7 +1461,7 @@
         <v>35151.0</v>
       </c>
       <c r="B174" t="n">
-        <v>17.71278129066333</v>
+        <v>15.259824577136628</v>
       </c>
     </row>
     <row r="175">
@@ -1469,7 +1469,7 @@
         <v>35156.0</v>
       </c>
       <c r="B175" t="n">
-        <v>12.200798053280698</v>
+        <v>26.668064097862025</v>
       </c>
     </row>
     <row r="176">
@@ -1477,7 +1477,7 @@
         <v>35166.0</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6005081638460925</v>
+        <v>29.73758461744503</v>
       </c>
     </row>
     <row r="177">
@@ -1485,7 +1485,7 @@
         <v>35171.0</v>
       </c>
       <c r="B177" t="n">
-        <v>23.8067500119612</v>
+        <v>15.82419292086288</v>
       </c>
     </row>
     <row r="178">
@@ -1493,7 +1493,7 @@
         <v>35176.0</v>
       </c>
       <c r="B178" t="n">
-        <v>40.98621956908427</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="179">
@@ -1501,7 +1501,7 @@
         <v>35186.0</v>
       </c>
       <c r="B179" t="n">
-        <v>18.018565597617787</v>
+        <v>12.626054182200985</v>
       </c>
     </row>
     <row r="180">
@@ -1509,7 +1509,7 @@
         <v>35191.0</v>
       </c>
       <c r="B180" t="n">
-        <v>16.230449863431772</v>
+        <v>11.798045013957461</v>
       </c>
     </row>
     <row r="181">
@@ -1517,7 +1517,7 @@
         <v>35196.0</v>
       </c>
       <c r="B181" t="n">
-        <v>24.59705077062728</v>
+        <v>25.86556562519851</v>
       </c>
     </row>
     <row r="182">
@@ -1525,7 +1525,7 @@
         <v>35206.0</v>
       </c>
       <c r="B182" t="n">
-        <v>20.913251793128655</v>
+        <v>13.751771215113989</v>
       </c>
     </row>
     <row r="183">
@@ -1533,7 +1533,7 @@
         <v>35211.0</v>
       </c>
       <c r="B183" t="n">
-        <v>16.228396797181098</v>
+        <v>15.264348901881393</v>
       </c>
     </row>
     <row r="184">
@@ -1541,7 +1541,7 @@
         <v>35216.0</v>
       </c>
       <c r="B184" t="n">
-        <v>11.968051999281457</v>
+        <v>9.530052272485365</v>
       </c>
     </row>
     <row r="185">
@@ -1549,7 +1549,7 @@
         <v>35226.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10.65407247098566</v>
+        <v>9.879435759103918</v>
       </c>
     </row>
     <row r="186">
@@ -1557,7 +1557,7 @@
         <v>35231.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10.325429521361757</v>
+        <v>10.859116354464366</v>
       </c>
     </row>
     <row r="187">
@@ -1565,7 +1565,7 @@
         <v>35236.0</v>
       </c>
       <c r="B187" t="n">
-        <v>6.318693915615375</v>
+        <v>7.836679418889773</v>
       </c>
     </row>
     <row r="188">
@@ -1573,7 +1573,7 @@
         <v>35246.0</v>
       </c>
       <c r="B188" t="n">
-        <v>13.723836366108722</v>
+        <v>4.803109176208225</v>
       </c>
     </row>
     <row r="189">
@@ -1581,7 +1581,7 @@
         <v>35251.0</v>
       </c>
       <c r="B189" t="n">
-        <v>9.805649950038429</v>
+        <v>8.512264787271617</v>
       </c>
     </row>
     <row r="190">
@@ -1589,7 +1589,7 @@
         <v>35256.0</v>
       </c>
       <c r="B190" t="n">
-        <v>8.205264872440042</v>
+        <v>8.892420320220337</v>
       </c>
     </row>
     <row r="191">
@@ -1597,7 +1597,7 @@
         <v>35266.0</v>
       </c>
       <c r="B191" t="n">
-        <v>4.355999353670235</v>
+        <v>19.502338645328898</v>
       </c>
     </row>
     <row r="192">
@@ -1605,7 +1605,7 @@
         <v>35271.0</v>
       </c>
       <c r="B192" t="n">
-        <v>10.707849386134717</v>
+        <v>9.733677600331028</v>
       </c>
     </row>
     <row r="193">
@@ -1613,7 +1613,7 @@
         <v>35276.0</v>
       </c>
       <c r="B193" t="n">
-        <v>9.51936563057118</v>
+        <v>7.867488395116092</v>
       </c>
     </row>
     <row r="194">
@@ -1621,7 +1621,7 @@
         <v>35286.0</v>
       </c>
       <c r="B194" t="n">
-        <v>3.5347851926108635</v>
+        <v>19.439754051629453</v>
       </c>
     </row>
     <row r="195">
@@ -1629,7 +1629,7 @@
         <v>35291.0</v>
       </c>
       <c r="B195" t="n">
-        <v>3.7499999999999982</v>
+        <v>27.44052590335961</v>
       </c>
     </row>
     <row r="196">
@@ -1637,7 +1637,7 @@
         <v>35296.0</v>
       </c>
       <c r="B196" t="n">
-        <v>11.644534035907455</v>
+        <v>9.11577517709744</v>
       </c>
     </row>
     <row r="197">
@@ -1645,7 +1645,7 @@
         <v>35307.0</v>
       </c>
       <c r="B197" t="n">
-        <v>10.233898239414112</v>
+        <v>8.641882552239998</v>
       </c>
     </row>
     <row r="198">
@@ -1653,7 +1653,7 @@
         <v>35312.0</v>
       </c>
       <c r="B198" t="n">
-        <v>9.511441368764727</v>
+        <v>8.629910317210753</v>
       </c>
     </row>
     <row r="199">
@@ -1661,7 +1661,7 @@
         <v>35317.0</v>
       </c>
       <c r="B199" t="n">
-        <v>9.10513019483779</v>
+        <v>8.91861098672394</v>
       </c>
     </row>
     <row r="200">
@@ -1669,7 +1669,7 @@
         <v>35327.0</v>
       </c>
       <c r="B200" t="n">
-        <v>7.307092665038369</v>
+        <v>12.617390586857523</v>
       </c>
     </row>
     <row r="201">
@@ -1677,7 +1677,7 @@
         <v>35332.0</v>
       </c>
       <c r="B201" t="n">
-        <v>19.926426852125008</v>
+        <v>7.102362788038108</v>
       </c>
     </row>
     <row r="202">
@@ -1685,7 +1685,7 @@
         <v>35337.0</v>
       </c>
       <c r="B202" t="n">
-        <v>9.96164108989022</v>
+        <v>15.681482092605615</v>
       </c>
     </row>
     <row r="203">
@@ -1693,7 +1693,7 @@
         <v>35347.0</v>
       </c>
       <c r="B203" t="n">
-        <v>5.809794157069975</v>
+        <v>11.979140903925797</v>
       </c>
     </row>
     <row r="204">
@@ -1701,7 +1701,7 @@
         <v>35352.0</v>
       </c>
       <c r="B204" t="n">
-        <v>24.151296485623288</v>
+        <v>69.13939253200556</v>
       </c>
     </row>
     <row r="205">
@@ -1709,7 +1709,7 @@
         <v>35357.0</v>
       </c>
       <c r="B205" t="n">
-        <v>11.851145406136506</v>
+        <v>33.93139652614219</v>
       </c>
     </row>
     <row r="206">
@@ -1717,7 +1717,7 @@
         <v>35367.0</v>
       </c>
       <c r="B206" t="n">
-        <v>8.330899791372037</v>
+        <v>40.571453628323674</v>
       </c>
     </row>
     <row r="207">
@@ -1725,7 +1725,7 @@
         <v>35372.0</v>
       </c>
       <c r="B207" t="n">
-        <v>13.532957605573866</v>
+        <v>9.355528860841382</v>
       </c>
     </row>
     <row r="208">
@@ -1733,7 +1733,7 @@
         <v>35378.0</v>
       </c>
       <c r="B208" t="n">
-        <v>23.319717552292527</v>
+        <v>31.551801600125646</v>
       </c>
     </row>
     <row r="209">
@@ -1741,7 +1741,7 @@
         <v>35388.0</v>
       </c>
       <c r="B209" t="n">
-        <v>62.113098902286346</v>
+        <v>87.07409839624496</v>
       </c>
     </row>
     <row r="210">
@@ -1749,7 +1749,7 @@
         <v>35393.0</v>
       </c>
       <c r="B210" t="n">
-        <v>69.46777899464465</v>
+        <v>29.673178782883593</v>
       </c>
     </row>
     <row r="211">
@@ -1757,7 +1757,7 @@
         <v>35398.0</v>
       </c>
       <c r="B211" t="n">
-        <v>25.610707133592882</v>
+        <v>22.972296691287855</v>
       </c>
     </row>
     <row r="212">
@@ -1765,7 +1765,7 @@
         <v>35408.0</v>
       </c>
       <c r="B212" t="n">
-        <v>7.586664077133758</v>
+        <v>41.69146325945182</v>
       </c>
     </row>
     <row r="213">
@@ -1773,7 +1773,7 @@
         <v>35413.0</v>
       </c>
       <c r="B213" t="n">
-        <v>76.32419104943702</v>
+        <v>3.7499999999999982</v>
       </c>
     </row>
     <row r="214">
